--- a/medicine/Enfance/Mon_père_est_un_parrain/Mon_père_est_un_parrain.xlsx
+++ b/medicine/Enfance/Mon_père_est_un_parrain/Mon_père_est_un_parrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon_p%C3%A8re_est_un_parrain</t>
+          <t>Mon_père_est_un_parrain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mon père est un parrain (titre original : Son of the Mob) est un roman de Gordon Korman publié aux États-Unis en 2002 puis traduit en Français par Catherine Gibert et publié en 2005.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon_p%C3%A8re_est_un_parrain</t>
+          <t>Mon_père_est_un_parrain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le héros, Vince, 17 ans, est le fils d'un parrain de la Mafia New New-yorkaise. C'est le seul de la famille qui n'approuve pas les activités de « lsjsl'entreprise » familiale. Et il trouve encore le moyen de tomber amoureux de Kendra, la fille de l'agent du FBI chargé de surveiller son père...
 L'humour noir est omniprésent, à travers le regard de cet adolescent désabusé sur sa famille et qui a les mêmes problèmes que nous (comme retrouver un cadavre pas tout à fait mort dans le coffre de sa voiture, par exemple...).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mon_p%C3%A8re_est_un_parrain</t>
+          <t>Mon_père_est_un_parrain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vince Luca, 17 ans.
 Anthony Luca, le père de Vince, parrain de la Mafia.
